--- a/medicine/Sexualité et sexologie/Désir_sexuel/Désir_sexuel.xlsx
+++ b/medicine/Sexualité et sexologie/Désir_sexuel/Désir_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9sir_sexuel</t>
+          <t>Désir_sexuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le désir sexuel est un état dans lequel une personne souhaite vivre un acte sexuel, avec autrui ou non. Le désir que l'on éprouve dépend de son propre état, des sentiments pour l'autre à ce moment, des interactions et de la situation. Ce sentiment est appelé libido. Le fait qu'un contexte ne se prête pas à l'acte n'empêche pas le désir sexuel, et inversement un désir même réciproque n'implique pas un passage à l'acte. Le désir partagé par les partenaires est néanmoins la motivation naturelle de l'acte sexuel. Le désir est lié au consentement sexuel.
-Le désir croît spontanément et s'accompagne d'excitation sexuelle physique lors de contacts sensuels, y compris par le regard, la parole ou le jeu. L'orgasme met le plus souvent fin à l'acte sexuel car il entraîne une libération de prolactine dans l'hypophyse, ce qui produit une importante réduction du désir sexuel chez l'homme comme chez la femme[1],[2].
+Le désir croît spontanément et s'accompagne d'excitation sexuelle physique lors de contacts sensuels, y compris par le regard, la parole ou le jeu. L'orgasme met le plus souvent fin à l'acte sexuel car il entraîne une libération de prolactine dans l'hypophyse, ce qui produit une importante réduction du désir sexuel chez l'homme comme chez la femme,.
 La manifestation du désir varie grandement suivant les personnes et les périodes de la vie, mais aussi la culture et le genre. On nomme parfois ce trait de l'humain « pulsion sexuelle », notamment en psychanalyse. On peut désirer des gens d'un sexe exclusivement (homosexualité ou hétérosexualité) ou au contraire des deux sexes (bisexualité), indifféremment (pansexualité). Certaines personnes peuvent aussi avoir du désir sexuel sans qu'il soit dirigé vers quelqu'un, ou même ne pas avoir de désir sexuel (asexualité).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9sir_sexuel</t>
+          <t>Désir_sexuel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Physiologie du désir
-Attirance humaine
-Développement sexuel
-Effets du désir
-Troubles, peurs
-Voir aussi en anglais : Sexual script theory (en) (schémas de comportement sexuel)
-Blocage</t>
+          <t>Troubles, peurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir aussi en anglais : Sexual script theory (en) (schémas de comportement sexuel)
+</t>
         </is>
       </c>
     </row>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9sir_sexuel</t>
+          <t>Désir_sexuel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,12 +564,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orientation sexuelle
-Voir aussi en anglais : Sexual script theory (en) (schémas de comportement sexuel)
-Pressions sur le désir
-Voir aussi en anglais : Sexual script theory (en)
-Voir aussi : Double contrainte (anglais double bind)
-Désir dans le couple</t>
+          <t>Orientation sexuelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir aussi en anglais : Sexual script theory (en) (schémas de comportement sexuel)
+</t>
         </is>
       </c>
     </row>
@@ -566,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9sir_sexuel</t>
+          <t>Désir_sexuel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +596,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Désir et idéologies</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pressions sur le désir</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir aussi en anglais : Sexual script theory (en)
+Voir aussi : Double contrainte (anglais double bind)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Désir_sexuel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9sir_sexuel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Études et théories du désir</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Voir aussi : Sexologie#Problèmes_actuels
-Psychanalyse et libido</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir aussi : Sexologie#Problèmes_actuels
+</t>
         </is>
       </c>
     </row>
